--- a/public_html/archivos/2012_1044_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1044_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="138">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -110,9 +86,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -467,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,12 +455,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -710,10 +677,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +775,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1298,11 +1265,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,17 +1278,16 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -1335,14 +1301,13 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1354,10 +1319,9 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,22 +1355,19 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>14</v>
@@ -1421,27 +1382,27 @@
         <v>20</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>14</v>
@@ -1456,27 +1417,27 @@
         <v>12</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>14</v>
@@ -1491,27 +1452,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>14</v>
@@ -1526,27 +1487,27 @@
         <v>12</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -1561,25 +1522,25 @@
         <v>12</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
@@ -1594,25 +1555,25 @@
         <v>12</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
@@ -1627,27 +1588,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>14</v>
@@ -1662,25 +1623,25 @@
         <v>12</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>14</v>
@@ -1695,27 +1656,27 @@
         <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>14</v>
@@ -1730,27 +1691,27 @@
         <v>12</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>14</v>
@@ -1765,10 +1726,10 @@
         <v>12</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>13</v>
@@ -1776,16 +1737,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>14</v>
@@ -1800,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>13</v>
@@ -1811,16 +1772,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>14</v>
@@ -1835,10 +1796,10 @@
         <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>13</v>
@@ -1846,16 +1807,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>14</v>
@@ -1870,10 +1831,10 @@
         <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>18</v>
@@ -1881,16 +1842,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
@@ -1905,10 +1866,10 @@
         <v>12</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>18</v>
@@ -1916,16 +1877,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -1940,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="12" t="s">
@@ -1949,22 +1910,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
@@ -1973,27 +1934,27 @@
         <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>16</v>
@@ -2008,10 +1969,10 @@
         <v>12</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>13</v>
@@ -2019,16 +1980,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -2043,10 +2004,10 @@
         <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>13</v>
@@ -2054,16 +2015,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>16</v>
@@ -2078,10 +2039,10 @@
         <v>12</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>13</v>
@@ -2089,22 +2050,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
@@ -2113,10 +2074,10 @@
         <v>12</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>13</v>
@@ -2124,22 +2085,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>11</v>
@@ -2148,10 +2109,10 @@
         <v>12</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>13</v>
@@ -2159,22 +2120,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>11</v>
@@ -2183,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="18" t="s">
@@ -2192,23 +2153,19 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L28"/>
+  <autoFilter ref="A5:K28"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L28">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2252,7 +2209,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2275,10 +2232,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2296,36 +2253,36 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
@@ -2337,19 +2294,19 @@
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -2357,16 +2314,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>14</v>
@@ -2378,19 +2335,19 @@
         <v>11</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -2398,40 +2355,40 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2439,40 +2396,40 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -2480,16 +2437,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
@@ -2501,19 +2458,19 @@
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="L9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2521,40 +2478,40 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -2562,16 +2519,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>14</v>
@@ -2583,19 +2540,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -2603,16 +2560,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>14</v>
@@ -2624,19 +2581,19 @@
         <v>11</v>
       </c>
       <c r="H12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -2644,16 +2601,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>14</v>
@@ -2665,19 +2622,19 @@
         <v>11</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -2685,16 +2642,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>14</v>
@@ -2706,19 +2663,19 @@
         <v>11</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -2726,16 +2683,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>14</v>
@@ -2747,19 +2704,19 @@
         <v>11</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -2767,16 +2724,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>14</v>
@@ -2788,19 +2745,19 @@
         <v>11</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -2808,40 +2765,40 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -2849,16 +2806,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>14</v>
@@ -2870,19 +2827,19 @@
         <v>11</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -2890,16 +2847,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>14</v>
@@ -2911,19 +2868,19 @@
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -2931,16 +2888,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -2952,19 +2909,19 @@
         <v>11</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2972,16 +2929,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
@@ -2993,19 +2950,19 @@
         <v>11</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -3013,16 +2970,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>14</v>
@@ -3034,19 +2991,19 @@
         <v>11</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
